--- a/biology/Écologie/Enveloppe_écologique/Enveloppe_écologique.xlsx
+++ b/biology/Écologie/Enveloppe_écologique/Enveloppe_écologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enveloppe_%C3%A9cologique</t>
+          <t>Enveloppe_écologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enveloppe écologique est un concept récent utilisé en écologie.
 L'enveloppe écologique d'une espèce (ou éventuellement d'un groupe d'espèces symbiotes ou en fortes relations d'interdépendance, ou d'une guilde d'espèces) décrit la somme des conditions de milieu (habitat, altitude, climat, etc.) nécessaires et suffisantes à la vie de cette espèce (ou de ce groupe fonctionnel d'espèces).
